--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,24 @@
   </x:si>
   <x:si>
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240403</x:t>
@@ -380,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -689,7 +707,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.250625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.900625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1251,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4320395486</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1606,70 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45908.4174194097</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45908.4320395486</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Lugi George maher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام محمد عبدالقادر عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hossam</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4320395486</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45908.4320395486</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,13 +132,13 @@
     <x:t>ZYAD MAHMOUD</x:t>
   </x:si>
   <x:si>
-    <x:t>1240069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
+    <x:t>1240412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما محمد حسين محمود ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240080</x:t>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله عادل احمد حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Adel Ahmed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4250183</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -715,7 +724,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1150,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.7960139236</x:v>
+        <x:v>45909.5694269676</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.3992687847</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4320395486</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45908.4320395486</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -42,13 +42,13 @@
     <x:t>Adam Abdelalim Ahmed Ismaiel</x:t>
   </x:si>
   <x:si>
-    <x:t>1240020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
+    <x:t>1240208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل علي محمد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240025</x:t>
@@ -123,15 +123,6 @@
     <x:t>Zeiad mohamed magdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمود عبد العال عمر عبد العال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZYAD MAHMOUD</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240412</x:t>
   </x:si>
   <x:si>
@@ -141,15 +132,6 @@
     <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1240080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن خالد محمد عبد المنعم الامير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Khaled Elameer</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240411</x:t>
   </x:si>
   <x:si>
@@ -168,6 +150,15 @@
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240331</x:t>
   </x:si>
   <x:si>
@@ -193,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد جاد مرشدي عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240403</x:t>
@@ -724,7 +724,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -839,7 +839,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.7114813657</x:v>
+        <x:v>45927.4151357292</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1031,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.8643685995</x:v>
+        <x:v>45927.415768669</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1127,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4184486111</x:v>
+        <x:v>45909.5694269676</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.5694269676</x:v>
+        <x:v>45908.4207621875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.3716584491</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4207621875</x:v>
+        <x:v>45927.4617486921</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45923.4432404745</x:v>
+        <x:v>45927.5573278125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45927.4268321412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد جاد مرشدي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240403</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4268321412</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.3992687847</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4320395486</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45908.4320395486</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -830,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4151357292</x:v>
+        <x:v>45928.3820018519</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1240331</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -715,7 +706,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1214,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4617486921</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45923.4432404745</x:v>
+        <x:v>45927.5573278125</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.5573278125</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.3992687847</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4320395486</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45908.4320395486</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hossam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4320395486</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45908.4320395486</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35481.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35481.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم يحيى محمد فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Yahia Mohamed Farag</x:t>
   </x:si>
   <x:si>
     <x:t>1240297</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -958,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4166271991</x:v>
+        <x:v>45931.3808240393</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4172962963</x:v>
+        <x:v>45908.4166271991</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.415768669</x:v>
+        <x:v>45908.4172962963</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.8996730671</x:v>
+        <x:v>45927.415768669</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4176873032</x:v>
+        <x:v>45909.8996730671</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5694269676</x:v>
+        <x:v>45908.4176873032</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4207621875</x:v>
+        <x:v>45909.5694269676</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4207621875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45923.4432404745</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.5573278125</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4426149306</x:v>
+        <x:v>45927.5573278125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.8351766204</x:v>
+        <x:v>45908.4426149306</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45915.8351766204</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4187380787</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4207071412</x:v>
+        <x:v>45909.4187380787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.3992687847</x:v>
+        <x:v>45908.4207071412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4330571759</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45908.4330571759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6213197917</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45912.6213197917</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4320395486</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45908.4320395486</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
